--- a/Mifos Automation Excels/Client/2496-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-PERIODIC-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2496-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-PERIODIC-Makerepayment2.xlsx
@@ -915,7 +915,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,160 +1021,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>151</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5">
-        <v>42050</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>152</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
-        <v>42050</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>154</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5">
-        <v>42050</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G5" s="6"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,6 +1077,142 @@
         <v>6</v>
       </c>
       <c r="C2" s="5">
+        <v>42050</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>152</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>42050</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>154</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>42050</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>151</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
         <v>42064</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -1280,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,7 +1286,7 @@
     <col min="10" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -1329,7 +1315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>151</v>
       </c>
@@ -1356,7 +1342,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>152</v>
       </c>
@@ -1383,7 +1369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>154</v>
       </c>
@@ -1409,21 +1395,6 @@
         <v>33</v>
       </c>
       <c r="I4" s="17"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1432,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,17 +1635,6 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
